--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H2">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>43.19654322256902</v>
+        <v>56.194297982542</v>
       </c>
       <c r="R2">
-        <v>388.7688890031212</v>
+        <v>505.7486818428779</v>
       </c>
       <c r="S2">
-        <v>0.1035850854373406</v>
+        <v>0.1220087608824375</v>
       </c>
       <c r="T2">
-        <v>0.1035850854373406</v>
+        <v>0.1220087608824375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H3">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>97.90592512818336</v>
+        <v>76.58688714301111</v>
       </c>
       <c r="R3">
-        <v>881.1533261536501</v>
+        <v>689.2819842870999</v>
       </c>
       <c r="S3">
-        <v>0.234777898013053</v>
+        <v>0.1662850419995437</v>
       </c>
       <c r="T3">
-        <v>0.2347778980130531</v>
+        <v>0.1662850419995437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H4">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>18.65943800468367</v>
+        <v>30.35328481737378</v>
       </c>
       <c r="R4">
-        <v>167.934942042153</v>
+        <v>273.179563356364</v>
       </c>
       <c r="S4">
-        <v>0.04474523505200441</v>
+        <v>0.06590289054647523</v>
       </c>
       <c r="T4">
-        <v>0.04474523505200442</v>
+        <v>0.06590289054647522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H5">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>10.649627463585</v>
+        <v>8.981730398815776</v>
       </c>
       <c r="R5">
-        <v>95.84664717226502</v>
+        <v>80.83557358934199</v>
       </c>
       <c r="S5">
-        <v>0.02553775113456161</v>
+        <v>0.01950108526811892</v>
       </c>
       <c r="T5">
-        <v>0.02553775113456162</v>
+        <v>0.01950108526811892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H6">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N6">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q6">
-        <v>61.88825459568901</v>
+        <v>59.396810235444</v>
       </c>
       <c r="R6">
-        <v>556.9942913612011</v>
+        <v>534.571292118996</v>
       </c>
       <c r="S6">
-        <v>0.1484077118585943</v>
+        <v>0.1289620384517879</v>
       </c>
       <c r="T6">
-        <v>0.1484077118585943</v>
+        <v>0.1289620384517879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H7">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P7">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q7">
-        <v>140.27110432285</v>
+        <v>80.95157276580001</v>
       </c>
       <c r="R7">
-        <v>1262.43993890565</v>
+        <v>728.5641548922</v>
       </c>
       <c r="S7">
-        <v>0.3363693768459003</v>
+        <v>0.1757616242079967</v>
       </c>
       <c r="T7">
-        <v>0.3363693768459003</v>
+        <v>0.1757616242079967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H8">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N8">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q8">
-        <v>26.733621806177</v>
+        <v>32.08311809287201</v>
       </c>
       <c r="R8">
-        <v>240.602596255593</v>
+        <v>288.748062835848</v>
       </c>
       <c r="S8">
-        <v>0.06410708571225586</v>
+        <v>0.06965869535326036</v>
       </c>
       <c r="T8">
-        <v>0.06410708571225587</v>
+        <v>0.06965869535326036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H9">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N9">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O9">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P9">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q9">
-        <v>15.257861084385</v>
+        <v>9.493599088116</v>
       </c>
       <c r="R9">
-        <v>137.320749759465</v>
+        <v>85.442391793044</v>
       </c>
       <c r="S9">
-        <v>0.03658827133165909</v>
+        <v>0.02061245184369995</v>
       </c>
       <c r="T9">
-        <v>0.0365882713316591</v>
+        <v>0.02061245184369995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H10">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N10">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q10">
-        <v>0.6217218396863333</v>
+        <v>34.782539114205</v>
       </c>
       <c r="R10">
-        <v>5.595496557177</v>
+        <v>313.042852027845</v>
       </c>
       <c r="S10">
-        <v>0.001490885730146148</v>
+        <v>0.07551966391656838</v>
       </c>
       <c r="T10">
-        <v>0.001490885730146147</v>
+        <v>0.07551966391656839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H11">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P11">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q11">
-        <v>1.409146365561111</v>
+        <v>47.40492351225</v>
       </c>
       <c r="R11">
-        <v>12.68231729005</v>
+        <v>426.64431161025</v>
       </c>
       <c r="S11">
-        <v>0.003379125637861276</v>
+        <v>0.102925317783189</v>
       </c>
       <c r="T11">
-        <v>0.003379125637861276</v>
+        <v>0.102925317783189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H12">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I12">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J12">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N12">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q12">
-        <v>0.2685626964178888</v>
+        <v>18.78774812229</v>
       </c>
       <c r="R12">
-        <v>2.417064267761</v>
+        <v>169.08973310061</v>
       </c>
       <c r="S12">
-        <v>0.000644011945826139</v>
+        <v>0.04079185879115511</v>
       </c>
       <c r="T12">
-        <v>0.000644011945826139</v>
+        <v>0.04079185879115511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H13">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N13">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O13">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P13">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q13">
-        <v>0.153278607145</v>
+        <v>5.559414391244999</v>
       </c>
       <c r="R13">
-        <v>1.379507464305</v>
+        <v>50.034729521205</v>
       </c>
       <c r="S13">
-        <v>0.0003675613007972336</v>
+        <v>0.0120705709557671</v>
       </c>
       <c r="T13">
-        <v>0.0003675613007972336</v>
+        <v>0.0120705709557671</v>
       </c>
     </row>
   </sheetData>
